--- a/WebRoot/static/template/investment/投資預算模板.xlsx
+++ b/WebRoot/static/template/investment/投資預算模板.xlsx
@@ -68,15 +68,6 @@
     <t>需求數量 (或場地面積)</t>
   </si>
   <si>
-    <t>請購單或模治具執行單年月</t>
-  </si>
-  <si>
-    <t>驗收單年月（轉固定資產月份）</t>
-  </si>
-  <si>
-    <t>結報年月或模治具執行單結案年月</t>
-  </si>
-  <si>
     <t>投資說明</t>
   </si>
   <si>
@@ -90,6 +81,57 @@
   </si>
   <si>
     <t>產品生命週期-年（用於購置設備）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">驗收單年月（轉固定資產月份）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(年月填报格式示例：202203)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">結報年月或模治具執行單結案年月
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(年月填报格式示例：202203)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">請購單或模治具執行單年月
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(年月填报格式示例：202203)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -99,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +174,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -490,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -505,9 +555,9 @@
     <col min="12" max="12" width="17.5546875" customWidth="1"/>
     <col min="13" max="13" width="22.5546875" customWidth="1"/>
     <col min="14" max="14" width="30.33203125" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" customWidth="1"/>
+    <col min="15" max="15" width="26.44140625" customWidth="1"/>
     <col min="16" max="16" width="27.77734375" customWidth="1"/>
-    <col min="17" max="17" width="29.77734375" customWidth="1"/>
+    <col min="17" max="17" width="29.21875" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.44140625" customWidth="1"/>
     <col min="20" max="20" width="19.88671875" customWidth="1"/>
@@ -546,7 +596,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="1:25" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -587,40 +637,40 @@
         <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/static/template/investment/投資預算模板.xlsx
+++ b/WebRoot/static/template/investment/投資預算模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggao\Desktop\Fit BI\重要\investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\WebRoot\static\template\investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WebRoot/static/template/investment/投資預算模板.xlsx
+++ b/WebRoot/static/template/investment/投資預算模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\WebRoot\static\template\investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\out\artifacts\FIT_war_exploded\static\template\investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>基礎信息</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -562,12 +562,12 @@
     <col min="19" max="19" width="8.44140625" customWidth="1"/>
     <col min="20" max="20" width="19.88671875" customWidth="1"/>
     <col min="21" max="21" width="20.5546875" customWidth="1"/>
-    <col min="22" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="20.77734375" customWidth="1"/>
-    <col min="25" max="25" width="20.5546875" customWidth="1"/>
+    <col min="22" max="27" width="21" customWidth="1"/>
+    <col min="28" max="28" width="20.77734375" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.2" customHeight="1">
+    <row r="1" spans="1:29" ht="16.2" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,8 +595,12 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="30" customHeight="1">
+    <row r="2" spans="1:29" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -661,15 +665,27 @@
         <v>17</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -677,8 +693,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>

--- a/WebRoot/static/template/investment/投資預算模板.xlsx
+++ b/WebRoot/static/template/investment/投資預算模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>基礎信息</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -562,12 +562,12 @@
     <col min="19" max="19" width="8.44140625" customWidth="1"/>
     <col min="20" max="20" width="19.88671875" customWidth="1"/>
     <col min="21" max="21" width="20.5546875" customWidth="1"/>
-    <col min="22" max="27" width="21" customWidth="1"/>
-    <col min="28" max="28" width="20.77734375" customWidth="1"/>
-    <col min="29" max="29" width="20.5546875" customWidth="1"/>
+    <col min="22" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="20.77734375" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" customHeight="1">
+    <row r="1" spans="1:25" ht="16.2" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,12 +595,8 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1">
+    <row r="2" spans="1:25" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -665,27 +661,15 @@
         <v>17</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -693,8 +677,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>

--- a/WebRoot/static/template/investment/投資預算模板.xlsx
+++ b/WebRoot/static/template/investment/投資預算模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\out\artifacts\FIT_war_exploded\static\template\investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\WebRoot\static\template\investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Segment </t>
   </si>
   <si>
-    <t>Main business</t>
-  </si>
-  <si>
     <t>產業</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
       </rPr>
       <t>(年月填报格式示例：202203)</t>
     </r>
+  </si>
+  <si>
+    <t>3+3</t>
   </si>
 </sst>
 </file>
@@ -613,64 +613,64 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="V2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="X2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
